--- a/medicine/Psychotrope/Trois_Pistoles_(bière)/Trois_Pistoles_(bière).xlsx
+++ b/medicine/Psychotrope/Trois_Pistoles_(bière)/Trois_Pistoles_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trois_Pistoles_(bi%C3%A8re)</t>
+          <t>Trois_Pistoles_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Trois Pistoles est une bière québécoise d'une couleur rubis très foncé (mais pas noire) d'inspiration belge brassée par Unibroue depuis [Quand ?]. Son nom évoque la légende du cheval noir de Trois-Pistoles[1], au Bas-Saint-Laurent. 
-Son goût, malgré son degré d'alcool de 9°[2], rappelle celui de petits fruits suivi d'un goût malté. Sa finale rappelle son degré d'alcool. Évidemment, la présence de la levure se fait sentir (ainsi que certains esters). On peut y déceler certaines notes de cannelle, d'agrumes et de caramel. À boire entre 12 et 14°C[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Trois Pistoles est une bière québécoise d'une couleur rubis très foncé (mais pas noire) d'inspiration belge brassée par Unibroue depuis [Quand ?]. Son nom évoque la légende du cheval noir de Trois-Pistoles, au Bas-Saint-Laurent. 
+Son goût, malgré son degré d'alcool de 9°, rappelle celui de petits fruits suivi d'un goût malté. Sa finale rappelle son degré d'alcool. Évidemment, la présence de la levure se fait sentir (ainsi que certains esters). On peut y déceler certaines notes de cannelle, d'agrumes et de caramel. À boire entre 12 et 14°C.
 </t>
         </is>
       </c>
